--- a/xlsx_files/Race43.xlsx
+++ b/xlsx_files/Race43.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817FA5B-2F58-4F9F-BFA2-55546769548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03AED74-D9A2-4B04-8C5C-2E3E93DA71A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Track Name</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01:29.9800</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -707,8 +710,8 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
